--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col4a3-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col4a3-Cd93.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.317424</v>
+        <v>0.704106</v>
       </c>
       <c r="H2">
-        <v>0.6348480000000001</v>
+        <v>1.408212</v>
       </c>
       <c r="I2">
-        <v>0.1868970758177159</v>
+        <v>0.3783320718192561</v>
       </c>
       <c r="J2">
-        <v>0.1502449105071424</v>
+        <v>0.336387758475552</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>235.101616</v>
+        <v>220.2572175</v>
       </c>
       <c r="N2">
-        <v>470.2032320000001</v>
+        <v>440.514435</v>
       </c>
       <c r="O2">
-        <v>0.418075528241112</v>
+        <v>0.5129507012517006</v>
       </c>
       <c r="P2">
-        <v>0.3241848074150885</v>
+        <v>0.4137724133030643</v>
       </c>
       <c r="Q2">
-        <v>74.62689535718403</v>
+        <v>155.084428385055</v>
       </c>
       <c r="R2">
-        <v>298.5075814287361</v>
+        <v>620.33771354022</v>
       </c>
       <c r="S2">
-        <v>0.07813709369921074</v>
+        <v>0.1940657015456962</v>
       </c>
       <c r="T2">
-        <v>0.04870711737785516</v>
+        <v>0.1391879746300375</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.317424</v>
+        <v>0.704106</v>
       </c>
       <c r="H3">
-        <v>0.6348480000000001</v>
+        <v>1.408212</v>
       </c>
       <c r="I3">
-        <v>0.1868970758177159</v>
+        <v>0.3783320718192561</v>
       </c>
       <c r="J3">
-        <v>0.1502449105071424</v>
+        <v>0.336387758475552</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.184044</v>
       </c>
       <c r="O3">
-        <v>0.0001090936674230931</v>
+        <v>0.0001428715933923452</v>
       </c>
       <c r="P3">
-        <v>0.0001268903840624867</v>
+        <v>0.0001728713612618601</v>
       </c>
       <c r="Q3">
-        <v>0.019473327552</v>
+        <v>0.04319549488800001</v>
       </c>
       <c r="R3">
-        <v>0.116839965312</v>
+        <v>0.259172969328</v>
       </c>
       <c r="S3">
-        <v>2.038928743160651E-05</v>
+        <v>5.405290593224428E-05</v>
       </c>
       <c r="T3">
-        <v>1.906463439768524E-05</v>
+        <v>5.815180971949449E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.317424</v>
+        <v>0.704106</v>
       </c>
       <c r="H4">
-        <v>0.6348480000000001</v>
+        <v>1.408212</v>
       </c>
       <c r="I4">
-        <v>0.1868970758177159</v>
+        <v>0.3783320718192561</v>
       </c>
       <c r="J4">
-        <v>0.1502449105071424</v>
+        <v>0.336387758475552</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>97.11560033333332</v>
+        <v>71.69991033333334</v>
       </c>
       <c r="N4">
-        <v>291.346801</v>
+        <v>215.099731</v>
       </c>
       <c r="O4">
-        <v>0.1726983276448897</v>
+        <v>0.1669798597413381</v>
       </c>
       <c r="P4">
-        <v>0.2008710279838891</v>
+        <v>0.202041812311349</v>
       </c>
       <c r="Q4">
-        <v>30.826822320208</v>
+        <v>50.484337065162</v>
       </c>
       <c r="R4">
-        <v>184.960933921248</v>
+        <v>302.906022390972</v>
       </c>
       <c r="S4">
-        <v>0.03227681243543969</v>
+        <v>0.06317383628802922</v>
       </c>
       <c r="T4">
-        <v>0.03017984962291711</v>
+        <v>0.06796439236175289</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.317424</v>
+        <v>0.704106</v>
       </c>
       <c r="H5">
-        <v>0.6348480000000001</v>
+        <v>1.408212</v>
       </c>
       <c r="I5">
-        <v>0.1868970758177159</v>
+        <v>0.3783320718192561</v>
       </c>
       <c r="J5">
-        <v>0.1502449105071424</v>
+        <v>0.336387758475552</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.508493</v>
+        <v>3.2906945</v>
       </c>
       <c r="N5">
-        <v>3.016986</v>
+        <v>6.581389</v>
       </c>
       <c r="O5">
-        <v>0.002682516685989175</v>
+        <v>0.007663603810758729</v>
       </c>
       <c r="P5">
-        <v>0.00208008146014619</v>
+        <v>0.006181856922387211</v>
       </c>
       <c r="Q5">
-        <v>0.4788318820320001</v>
+        <v>2.316997741617</v>
       </c>
       <c r="R5">
-        <v>1.915327528128</v>
+        <v>9.267990966468</v>
       </c>
       <c r="S5">
-        <v>0.000501354524443607</v>
+        <v>0.002899387107326296</v>
       </c>
       <c r="T5">
-        <v>0.0003125216528272304</v>
+        <v>0.002079500993338409</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.317424</v>
+        <v>0.704106</v>
       </c>
       <c r="H6">
-        <v>0.6348480000000001</v>
+        <v>1.408212</v>
       </c>
       <c r="I6">
-        <v>0.1868970758177159</v>
+        <v>0.3783320718192561</v>
       </c>
       <c r="J6">
-        <v>0.1502449105071424</v>
+        <v>0.336387758475552</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>159.6431223333333</v>
+        <v>27.607354</v>
       </c>
       <c r="N6">
-        <v>478.929367</v>
+        <v>82.82206199999999</v>
       </c>
       <c r="O6">
-        <v>0.2838895105662259</v>
+        <v>0.06429397299547716</v>
       </c>
       <c r="P6">
-        <v>0.3302011003750931</v>
+        <v>0.07779423725008243</v>
       </c>
       <c r="Q6">
-        <v>50.674558463536</v>
+        <v>19.438503595524</v>
       </c>
       <c r="R6">
-        <v>304.047350781216</v>
+        <v>116.631021573144</v>
       </c>
       <c r="S6">
-        <v>0.05305811938015018</v>
+        <v>0.02432447200887018</v>
       </c>
       <c r="T6">
-        <v>0.04961103477521581</v>
+        <v>0.02616902909087052</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.317424</v>
+        <v>0.704106</v>
       </c>
       <c r="H7">
-        <v>0.6348480000000001</v>
+        <v>1.408212</v>
       </c>
       <c r="I7">
-        <v>0.1868970758177159</v>
+        <v>0.3783320718192561</v>
       </c>
       <c r="J7">
-        <v>0.1502449105071424</v>
+        <v>0.336387758475552</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>68.91226833333333</v>
+        <v>106.476041</v>
       </c>
       <c r="N7">
-        <v>206.736805</v>
+        <v>319.428123</v>
       </c>
       <c r="O7">
-        <v>0.1225450231943603</v>
+        <v>0.2479689906073331</v>
       </c>
       <c r="P7">
-        <v>0.1425360923817208</v>
+        <v>0.3000368088518554</v>
       </c>
       <c r="Q7">
-        <v>21.87440786344</v>
+        <v>74.97041932434601</v>
       </c>
       <c r="R7">
-        <v>131.24644718064</v>
+        <v>449.8225159460761</v>
       </c>
       <c r="S7">
-        <v>0.02290330649104011</v>
+        <v>0.093814621963402</v>
       </c>
       <c r="T7">
-        <v>0.02141532244392942</v>
+        <v>0.1009287095898333</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.034265</v>
       </c>
       <c r="I8">
-        <v>0.2029893813118625</v>
+        <v>0.1852446555206853</v>
       </c>
       <c r="J8">
-        <v>0.2447720593995249</v>
+        <v>0.2470608722406263</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>235.101616</v>
+        <v>220.2572175</v>
       </c>
       <c r="N8">
-        <v>470.2032320000001</v>
+        <v>440.514435</v>
       </c>
       <c r="O8">
-        <v>0.418075528241112</v>
+        <v>0.5129507012517006</v>
       </c>
       <c r="P8">
-        <v>0.3241848074150885</v>
+        <v>0.4137724133030643</v>
       </c>
       <c r="Q8">
-        <v>81.05245762408001</v>
+        <v>75.93477701921249</v>
       </c>
       <c r="R8">
-        <v>486.3147457444801</v>
+        <v>455.608662115275</v>
       </c>
       <c r="S8">
-        <v>0.08486489281929342</v>
+        <v>0.09502137595246522</v>
       </c>
       <c r="T8">
-        <v>0.07935138293702959</v>
+        <v>0.102226973339764</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.034265</v>
       </c>
       <c r="I9">
-        <v>0.2029893813118625</v>
+        <v>0.1852446555206853</v>
       </c>
       <c r="J9">
-        <v>0.2447720593995249</v>
+        <v>0.2470608722406263</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>0.184044</v>
       </c>
       <c r="O9">
-        <v>0.0001090936674230931</v>
+        <v>0.0001428715933923452</v>
       </c>
       <c r="P9">
-        <v>0.0001268903840624867</v>
+        <v>0.0001728713612618601</v>
       </c>
       <c r="Q9">
         <v>0.02115002974</v>
@@ -1013,10 +1013,10 @@
         <v>0.19035026766</v>
       </c>
       <c r="S9">
-        <v>2.214485605525575E-05</v>
+        <v>2.64661991016564E-05</v>
       </c>
       <c r="T9">
-        <v>3.105922062497153E-05</v>
+        <v>4.270974929877956E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1.034265</v>
       </c>
       <c r="I10">
-        <v>0.2029893813118625</v>
+        <v>0.1852446555206853</v>
       </c>
       <c r="J10">
-        <v>0.2447720593995249</v>
+        <v>0.2470608722406263</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>97.11560033333332</v>
+        <v>71.69991033333334</v>
       </c>
       <c r="N10">
-        <v>291.346801</v>
+        <v>215.099731</v>
       </c>
       <c r="O10">
-        <v>0.1726983276448897</v>
+        <v>0.1669798597413381</v>
       </c>
       <c r="P10">
-        <v>0.2008710279838891</v>
+        <v>0.202041812311349</v>
       </c>
       <c r="Q10">
-        <v>33.48108879291833</v>
+        <v>24.71890258696833</v>
       </c>
       <c r="R10">
-        <v>301.329799136265</v>
+        <v>222.470123282715</v>
       </c>
       <c r="S10">
-        <v>0.03505592668222947</v>
+        <v>0.03093212659667651</v>
       </c>
       <c r="T10">
-        <v>0.04916761519331612</v>
+        <v>0.04991662637871879</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1.034265</v>
       </c>
       <c r="I11">
-        <v>0.2029893813118625</v>
+        <v>0.1852446555206853</v>
       </c>
       <c r="J11">
-        <v>0.2447720593995249</v>
+        <v>0.2470608722406263</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.508493</v>
+        <v>3.2906945</v>
       </c>
       <c r="N11">
-        <v>3.016986</v>
+        <v>6.581389</v>
       </c>
       <c r="O11">
-        <v>0.002682516685989175</v>
+        <v>0.007663603810758729</v>
       </c>
       <c r="P11">
-        <v>0.00208008146014619</v>
+        <v>0.006181856922387211</v>
       </c>
       <c r="Q11">
-        <v>0.5200605042149999</v>
+        <v>1.1344833823475</v>
       </c>
       <c r="R11">
-        <v>3.12036302529</v>
+        <v>6.806900294085</v>
       </c>
       <c r="S11">
-        <v>0.0005445224024476905</v>
+        <v>0.001419641647971012</v>
       </c>
       <c r="T11">
-        <v>0.0005091458227187538</v>
+        <v>0.001527294963311738</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1.034265</v>
       </c>
       <c r="I12">
-        <v>0.2029893813118625</v>
+        <v>0.1852446555206853</v>
       </c>
       <c r="J12">
-        <v>0.2447720593995249</v>
+        <v>0.2470608722406263</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>159.6431223333333</v>
+        <v>27.607354</v>
       </c>
       <c r="N12">
-        <v>478.929367</v>
+        <v>82.82206199999999</v>
       </c>
       <c r="O12">
-        <v>0.2838895105662259</v>
+        <v>0.06429397299547716</v>
       </c>
       <c r="P12">
-        <v>0.3302011003750931</v>
+        <v>0.07779423725008243</v>
       </c>
       <c r="Q12">
-        <v>55.03776464002832</v>
+        <v>9.517773328269998</v>
       </c>
       <c r="R12">
-        <v>495.339881760255</v>
+        <v>85.65995995442999</v>
       </c>
       <c r="S12">
-        <v>0.05762655611076564</v>
+        <v>0.01191011487960341</v>
       </c>
       <c r="T12">
-        <v>0.08082400335480078</v>
+        <v>0.01921991211029958</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1.034265</v>
       </c>
       <c r="I13">
-        <v>0.2029893813118625</v>
+        <v>0.1852446555206853</v>
       </c>
       <c r="J13">
-        <v>0.2447720593995249</v>
+        <v>0.2470608722406263</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>68.91226833333333</v>
+        <v>106.476041</v>
       </c>
       <c r="N13">
-        <v>206.736805</v>
+        <v>319.428123</v>
       </c>
       <c r="O13">
-        <v>0.1225450231943603</v>
+        <v>0.2479689906073331</v>
       </c>
       <c r="P13">
-        <v>0.1425360923817208</v>
+        <v>0.3000368088518554</v>
       </c>
       <c r="Q13">
-        <v>23.75784906925833</v>
+        <v>36.708147514955</v>
       </c>
       <c r="R13">
-        <v>213.820641623325</v>
+        <v>330.373327634595</v>
       </c>
       <c r="S13">
-        <v>0.02487533844107103</v>
+        <v>0.04593493024486747</v>
       </c>
       <c r="T13">
-        <v>0.03488885287103473</v>
+        <v>0.07412735569923345</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.04745533333333333</v>
+        <v>0.06508966666666667</v>
       </c>
       <c r="H14">
-        <v>0.142366</v>
+        <v>0.195269</v>
       </c>
       <c r="I14">
-        <v>0.02794137504396322</v>
+        <v>0.03497414940935708</v>
       </c>
       <c r="J14">
-        <v>0.03369273736273853</v>
+        <v>0.04664503725984621</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>235.101616</v>
+        <v>220.2572175</v>
       </c>
       <c r="N14">
-        <v>470.2032320000001</v>
+        <v>440.514435</v>
       </c>
       <c r="O14">
-        <v>0.418075528241112</v>
+        <v>0.5129507012517006</v>
       </c>
       <c r="P14">
-        <v>0.3241848074150885</v>
+        <v>0.4137724133030643</v>
       </c>
       <c r="Q14">
-        <v>11.15682555448533</v>
+        <v>14.3364688680025</v>
       </c>
       <c r="R14">
-        <v>66.94095332691201</v>
+        <v>86.018813208015</v>
       </c>
       <c r="S14">
-        <v>0.01168160513128795</v>
+        <v>0.01794001446521146</v>
       </c>
       <c r="T14">
-        <v>0.01092267357322655</v>
+        <v>0.01930042963561792</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.04745533333333333</v>
+        <v>0.06508966666666667</v>
       </c>
       <c r="H15">
-        <v>0.142366</v>
+        <v>0.195269</v>
       </c>
       <c r="I15">
-        <v>0.02794137504396322</v>
+        <v>0.03497414940935708</v>
       </c>
       <c r="J15">
-        <v>0.03369273736273853</v>
+        <v>0.04664503725984621</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.184044</v>
       </c>
       <c r="O15">
-        <v>0.0001090936674230931</v>
+        <v>0.0001428715933923452</v>
       </c>
       <c r="P15">
-        <v>0.0001268903840624867</v>
+        <v>0.0001728713612618601</v>
       </c>
       <c r="Q15">
-        <v>0.002911289789333334</v>
+        <v>0.003993120870666667</v>
       </c>
       <c r="R15">
-        <v>0.026201608104</v>
+        <v>0.035938087836</v>
       </c>
       <c r="S15">
-        <v>3.048227076390035E-06</v>
+        <v>4.996812453656794E-06</v>
       </c>
       <c r="T15">
-        <v>4.275284384074387E-06</v>
+        <v>8.0635910872198E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.04745533333333333</v>
+        <v>0.06508966666666667</v>
       </c>
       <c r="H16">
-        <v>0.142366</v>
+        <v>0.195269</v>
       </c>
       <c r="I16">
-        <v>0.02794137504396322</v>
+        <v>0.03497414940935708</v>
       </c>
       <c r="J16">
-        <v>0.03369273736273853</v>
+        <v>0.04664503725984621</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>97.11560033333332</v>
+        <v>71.69991033333334</v>
       </c>
       <c r="N16">
-        <v>291.346801</v>
+        <v>215.099731</v>
       </c>
       <c r="O16">
-        <v>0.1726983276448897</v>
+        <v>0.1669798597413381</v>
       </c>
       <c r="P16">
-        <v>0.2008710279838891</v>
+        <v>0.202041812311349</v>
       </c>
       <c r="Q16">
-        <v>4.60865318568511</v>
+        <v>4.666923263626556</v>
       </c>
       <c r="R16">
-        <v>41.477878671166</v>
+        <v>42.002309372639</v>
       </c>
       <c r="S16">
-        <v>0.004825428742191103</v>
+        <v>0.005839978562947047</v>
       </c>
       <c r="T16">
-        <v>0.006767894789644475</v>
+        <v>0.009424247863309731</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.04745533333333333</v>
+        <v>0.06508966666666667</v>
       </c>
       <c r="H17">
-        <v>0.142366</v>
+        <v>0.195269</v>
       </c>
       <c r="I17">
-        <v>0.02794137504396322</v>
+        <v>0.03497414940935708</v>
       </c>
       <c r="J17">
-        <v>0.03369273736273853</v>
+        <v>0.04664503725984621</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.508493</v>
+        <v>3.2906945</v>
       </c>
       <c r="N17">
-        <v>3.016986</v>
+        <v>6.581389</v>
       </c>
       <c r="O17">
-        <v>0.002682516685989175</v>
+        <v>0.007663603810758729</v>
       </c>
       <c r="P17">
-        <v>0.00208008146014619</v>
+        <v>0.006181856922387211</v>
       </c>
       <c r="Q17">
-        <v>0.07158603814599999</v>
+        <v>0.2141902081068333</v>
       </c>
       <c r="R17">
-        <v>0.429516228876</v>
+        <v>1.285141248641</v>
       </c>
       <c r="S17">
-        <v>7.495320478491286E-05</v>
+        <v>0.0002680280246915941</v>
       </c>
       <c r="T17">
-        <v>7.008363832980727E-05</v>
+        <v>0.0002883529464797897</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.04745533333333333</v>
+        <v>0.06508966666666667</v>
       </c>
       <c r="H18">
-        <v>0.142366</v>
+        <v>0.195269</v>
       </c>
       <c r="I18">
-        <v>0.02794137504396322</v>
+        <v>0.03497414940935708</v>
       </c>
       <c r="J18">
-        <v>0.03369273736273853</v>
+        <v>0.04664503725984621</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>159.6431223333333</v>
+        <v>27.607354</v>
       </c>
       <c r="N18">
-        <v>478.929367</v>
+        <v>82.82206199999999</v>
       </c>
       <c r="O18">
-        <v>0.2838895105662259</v>
+        <v>0.06429397299547716</v>
       </c>
       <c r="P18">
-        <v>0.3302011003750931</v>
+        <v>0.07779423725008243</v>
       </c>
       <c r="Q18">
-        <v>7.575917584702442</v>
+        <v>1.796953469408667</v>
       </c>
       <c r="R18">
-        <v>68.18325826232198</v>
+        <v>16.172581224678</v>
       </c>
       <c r="S18">
-        <v>0.007932263285778075</v>
+        <v>0.002248627017664988</v>
       </c>
       <c r="T18">
-        <v>0.01112537895182527</v>
+        <v>0.003628715095131411</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.04745533333333333</v>
+        <v>0.06508966666666667</v>
       </c>
       <c r="H19">
-        <v>0.142366</v>
+        <v>0.195269</v>
       </c>
       <c r="I19">
-        <v>0.02794137504396322</v>
+        <v>0.03497414940935708</v>
       </c>
       <c r="J19">
-        <v>0.03369273736273853</v>
+        <v>0.04664503725984621</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>68.91226833333333</v>
+        <v>106.476041</v>
       </c>
       <c r="N19">
-        <v>206.736805</v>
+        <v>319.428123</v>
       </c>
       <c r="O19">
-        <v>0.1225450231943603</v>
+        <v>0.2479689906073331</v>
       </c>
       <c r="P19">
-        <v>0.1425360923817208</v>
+        <v>0.3000368088518554</v>
       </c>
       <c r="Q19">
-        <v>3.270254664514444</v>
+        <v>6.930490016676335</v>
       </c>
       <c r="R19">
-        <v>29.43229198063</v>
+        <v>62.374410150087</v>
       </c>
       <c r="S19">
-        <v>0.003424076452844791</v>
+        <v>0.008672504526388332</v>
       </c>
       <c r="T19">
-        <v>0.004802431125328354</v>
+        <v>0.01399522812822015</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.552323</v>
+        <v>0.692856</v>
       </c>
       <c r="H20">
-        <v>1.104646</v>
+        <v>1.385712</v>
       </c>
       <c r="I20">
-        <v>0.3252039971989147</v>
+        <v>0.3722871924857941</v>
       </c>
       <c r="J20">
-        <v>0.2614286245086584</v>
+        <v>0.3310130531288429</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>235.101616</v>
+        <v>220.2572175</v>
       </c>
       <c r="N20">
-        <v>470.2032320000001</v>
+        <v>440.514435</v>
       </c>
       <c r="O20">
-        <v>0.418075528241112</v>
+        <v>0.5129507012517006</v>
       </c>
       <c r="P20">
-        <v>0.3241848074150885</v>
+        <v>0.4137724133030643</v>
       </c>
       <c r="Q20">
-        <v>129.852029853968</v>
+        <v>152.60653468818</v>
       </c>
       <c r="R20">
-        <v>519.4081194158721</v>
+        <v>610.42613875272</v>
       </c>
       <c r="S20">
-        <v>0.1359598329150574</v>
+        <v>0.1909649764526149</v>
       </c>
       <c r="T20">
-        <v>0.08475118828913092</v>
+        <v>0.1369640698279368</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.552323</v>
+        <v>0.692856</v>
       </c>
       <c r="H21">
-        <v>1.104646</v>
+        <v>1.385712</v>
       </c>
       <c r="I21">
-        <v>0.3252039971989147</v>
+        <v>0.3722871924857941</v>
       </c>
       <c r="J21">
-        <v>0.2614286245086584</v>
+        <v>0.3310130531288429</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.184044</v>
       </c>
       <c r="O21">
-        <v>0.0001090936674230931</v>
+        <v>0.0001428715933923452</v>
       </c>
       <c r="P21">
-        <v>0.0001268903840624867</v>
+        <v>0.0001728713612618601</v>
       </c>
       <c r="Q21">
-        <v>0.033883911404</v>
+        <v>0.04250532988800001</v>
       </c>
       <c r="R21">
-        <v>0.203303468424</v>
+        <v>0.255031979328</v>
       </c>
       <c r="S21">
-        <v>3.547769671507889E-05</v>
+        <v>5.318926439000811E-05</v>
       </c>
       <c r="T21">
-        <v>3.317277856883129E-05</v>
+        <v>5.722267708982749E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.552323</v>
+        <v>0.692856</v>
       </c>
       <c r="H22">
-        <v>1.104646</v>
+        <v>1.385712</v>
       </c>
       <c r="I22">
-        <v>0.3252039971989147</v>
+        <v>0.3722871924857941</v>
       </c>
       <c r="J22">
-        <v>0.2614286245086584</v>
+        <v>0.3310130531288429</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>97.11560033333332</v>
+        <v>71.69991033333334</v>
       </c>
       <c r="N22">
-        <v>291.346801</v>
+        <v>215.099731</v>
       </c>
       <c r="O22">
-        <v>0.1726983276448897</v>
+        <v>0.1669798597413381</v>
       </c>
       <c r="P22">
-        <v>0.2008710279838891</v>
+        <v>0.202041812311349</v>
       </c>
       <c r="Q22">
-        <v>53.63917972290766</v>
+        <v>49.677713073912</v>
       </c>
       <c r="R22">
-        <v>321.835078337446</v>
+        <v>298.066278443472</v>
       </c>
       <c r="S22">
-        <v>0.05616218645968594</v>
+        <v>0.06216446318477441</v>
       </c>
       <c r="T22">
-        <v>0.05251343654946836</v>
+        <v>0.06687847715286427</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.552323</v>
+        <v>0.692856</v>
       </c>
       <c r="H23">
-        <v>1.104646</v>
+        <v>1.385712</v>
       </c>
       <c r="I23">
-        <v>0.3252039971989147</v>
+        <v>0.3722871924857941</v>
       </c>
       <c r="J23">
-        <v>0.2614286245086584</v>
+        <v>0.3310130531288429</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.508493</v>
+        <v>3.2906945</v>
       </c>
       <c r="N23">
-        <v>3.016986</v>
+        <v>6.581389</v>
       </c>
       <c r="O23">
-        <v>0.002682516685989175</v>
+        <v>0.007663603810758729</v>
       </c>
       <c r="P23">
-        <v>0.00208008146014619</v>
+        <v>0.006181856922387211</v>
       </c>
       <c r="Q23">
-        <v>0.8331753792390001</v>
+        <v>2.279977428492</v>
       </c>
       <c r="R23">
-        <v>3.332701516956</v>
+        <v>9.119909713967999</v>
       </c>
       <c r="S23">
-        <v>0.0008723651488364657</v>
+        <v>0.0028530615470308</v>
       </c>
       <c r="T23">
-        <v>0.0005437928349919804</v>
+        <v>0.002046275333885063</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.552323</v>
+        <v>0.692856</v>
       </c>
       <c r="H24">
-        <v>1.104646</v>
+        <v>1.385712</v>
       </c>
       <c r="I24">
-        <v>0.3252039971989147</v>
+        <v>0.3722871924857941</v>
       </c>
       <c r="J24">
-        <v>0.2614286245086584</v>
+        <v>0.3310130531288429</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>159.6431223333333</v>
+        <v>27.607354</v>
       </c>
       <c r="N24">
-        <v>478.929367</v>
+        <v>82.82206199999999</v>
       </c>
       <c r="O24">
-        <v>0.2838895105662259</v>
+        <v>0.06429397299547716</v>
       </c>
       <c r="P24">
-        <v>0.3302011003750931</v>
+        <v>0.07779423725008243</v>
       </c>
       <c r="Q24">
-        <v>88.17456825651365</v>
+        <v>19.127920863024</v>
       </c>
       <c r="R24">
-        <v>529.047409539082</v>
+        <v>114.767525178144</v>
       </c>
       <c r="S24">
-        <v>0.09232200359898017</v>
+        <v>0.02393582270024365</v>
       </c>
       <c r="T24">
-        <v>0.08632401948230604</v>
+        <v>0.02575090798797934</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.552323</v>
+        <v>0.692856</v>
       </c>
       <c r="H25">
-        <v>1.104646</v>
+        <v>1.385712</v>
       </c>
       <c r="I25">
-        <v>0.3252039971989147</v>
+        <v>0.3722871924857941</v>
       </c>
       <c r="J25">
-        <v>0.2614286245086584</v>
+        <v>0.3310130531288429</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>68.91226833333333</v>
+        <v>106.476041</v>
       </c>
       <c r="N25">
-        <v>206.736805</v>
+        <v>319.428123</v>
       </c>
       <c r="O25">
-        <v>0.1225450231943603</v>
+        <v>0.2479689906073331</v>
       </c>
       <c r="P25">
-        <v>0.1425360923817208</v>
+        <v>0.3000368088518554</v>
       </c>
       <c r="Q25">
-        <v>38.06183078267166</v>
+        <v>73.77256386309601</v>
       </c>
       <c r="R25">
-        <v>228.37098469603</v>
+        <v>442.635383178576</v>
       </c>
       <c r="S25">
-        <v>0.03985213137963967</v>
+        <v>0.09231567933674029</v>
       </c>
       <c r="T25">
-        <v>0.03726301457419233</v>
+        <v>0.09931610014908769</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.3992243333333333</v>
+        <v>0.01227233333333333</v>
       </c>
       <c r="H26">
-        <v>1.197673</v>
+        <v>0.036817</v>
       </c>
       <c r="I26">
-        <v>0.235060551487213</v>
+        <v>0.006594202145779922</v>
       </c>
       <c r="J26">
-        <v>0.2834446555739653</v>
+        <v>0.008794690077768404</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>235.101616</v>
+        <v>220.2572175</v>
       </c>
       <c r="N26">
-        <v>470.2032320000001</v>
+        <v>440.514435</v>
       </c>
       <c r="O26">
-        <v>0.418075528241112</v>
+        <v>0.5129507012517006</v>
       </c>
       <c r="P26">
-        <v>0.3241848074150885</v>
+        <v>0.4137724133030643</v>
       </c>
       <c r="Q26">
-        <v>93.85828591318935</v>
+        <v>2.7030699922325</v>
       </c>
       <c r="R26">
-        <v>563.149715479136</v>
+        <v>16.218419953395</v>
       </c>
       <c r="S26">
-        <v>0.09827306423166367</v>
+        <v>0.00338250061487328</v>
       </c>
       <c r="T26">
-        <v>0.09188845108008203</v>
+        <v>0.003639000137730747</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.3992243333333333</v>
+        <v>0.01227233333333333</v>
       </c>
       <c r="H27">
-        <v>1.197673</v>
+        <v>0.036817</v>
       </c>
       <c r="I27">
-        <v>0.235060551487213</v>
+        <v>0.006594202145779922</v>
       </c>
       <c r="J27">
-        <v>0.2834446555739653</v>
+        <v>0.008794690077768404</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>0.184044</v>
       </c>
       <c r="O27">
-        <v>0.0001090936674230931</v>
+        <v>0.0001428715933923452</v>
       </c>
       <c r="P27">
-        <v>0.0001268903840624867</v>
+        <v>0.0001728713612618601</v>
       </c>
       <c r="Q27">
-        <v>0.02449161440133334</v>
+        <v>0.0007528831053333335</v>
       </c>
       <c r="R27">
-        <v>0.220424529612</v>
+        <v>0.006775947948000001</v>
       </c>
       <c r="S27">
-        <v>2.564361762823486E-05</v>
+        <v>9.421241677187991E-07</v>
       </c>
       <c r="T27">
-        <v>3.596640120623972E-05</v>
+        <v>1.520350045619998E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.3992243333333333</v>
+        <v>0.01227233333333333</v>
       </c>
       <c r="H28">
-        <v>1.197673</v>
+        <v>0.036817</v>
       </c>
       <c r="I28">
-        <v>0.235060551487213</v>
+        <v>0.006594202145779922</v>
       </c>
       <c r="J28">
-        <v>0.2834446555739653</v>
+        <v>0.008794690077768404</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>97.11560033333332</v>
+        <v>71.69991033333334</v>
       </c>
       <c r="N28">
-        <v>291.346801</v>
+        <v>215.099731</v>
       </c>
       <c r="O28">
-        <v>0.1726983276448897</v>
+        <v>0.1669798597413381</v>
       </c>
       <c r="P28">
-        <v>0.2008710279838891</v>
+        <v>0.202041812311349</v>
       </c>
       <c r="Q28">
-        <v>38.77091079934144</v>
+        <v>0.8799251995807779</v>
       </c>
       <c r="R28">
-        <v>348.938197194073</v>
+        <v>7.919326796227001</v>
       </c>
       <c r="S28">
-        <v>0.04059456413712716</v>
+        <v>0.001101098949408362</v>
       </c>
       <c r="T28">
-        <v>0.05693581934168179</v>
+        <v>0.001776895122028967</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.3992243333333333</v>
+        <v>0.01227233333333333</v>
       </c>
       <c r="H29">
-        <v>1.197673</v>
+        <v>0.036817</v>
       </c>
       <c r="I29">
-        <v>0.235060551487213</v>
+        <v>0.006594202145779922</v>
       </c>
       <c r="J29">
-        <v>0.2834446555739653</v>
+        <v>0.008794690077768404</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.508493</v>
+        <v>3.2906945</v>
       </c>
       <c r="N29">
-        <v>3.016986</v>
+        <v>6.581389</v>
       </c>
       <c r="O29">
-        <v>0.002682516685989175</v>
+        <v>0.007663603810758729</v>
       </c>
       <c r="P29">
-        <v>0.00208008146014619</v>
+        <v>0.006181856922387211</v>
       </c>
       <c r="Q29">
-        <v>0.6022271122630001</v>
+        <v>0.04038449980216667</v>
       </c>
       <c r="R29">
-        <v>3.613362673578</v>
+        <v>0.242306998813</v>
       </c>
       <c r="S29">
-        <v>0.0006305538515822665</v>
+        <v>5.05353526933124E-05</v>
       </c>
       <c r="T29">
-        <v>0.0005895879730369278</v>
+        <v>5.436751573750273E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.3992243333333333</v>
+        <v>0.01227233333333333</v>
       </c>
       <c r="H30">
-        <v>1.197673</v>
+        <v>0.036817</v>
       </c>
       <c r="I30">
-        <v>0.235060551487213</v>
+        <v>0.006594202145779922</v>
       </c>
       <c r="J30">
-        <v>0.2834446555739653</v>
+        <v>0.008794690077768404</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>159.6431223333333</v>
+        <v>27.607354</v>
       </c>
       <c r="N30">
-        <v>478.929367</v>
+        <v>82.82206199999999</v>
       </c>
       <c r="O30">
-        <v>0.2838895105662259</v>
+        <v>0.06429397299547716</v>
       </c>
       <c r="P30">
-        <v>0.3302011003750931</v>
+        <v>0.07779423725008243</v>
       </c>
       <c r="Q30">
-        <v>63.73341908477677</v>
+        <v>0.3388066507393334</v>
       </c>
       <c r="R30">
-        <v>573.6007717629909</v>
+        <v>3.049259856654</v>
       </c>
       <c r="S30">
-        <v>0.06673122491513202</v>
+        <v>0.0004239674546874919</v>
       </c>
       <c r="T30">
-        <v>0.09359373716596261</v>
+        <v>0.0006841762064508611</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.3992243333333333</v>
+        <v>0.01227233333333333</v>
       </c>
       <c r="H31">
-        <v>1.197673</v>
+        <v>0.036817</v>
       </c>
       <c r="I31">
-        <v>0.235060551487213</v>
+        <v>0.006594202145779922</v>
       </c>
       <c r="J31">
-        <v>0.2834446555739653</v>
+        <v>0.008794690077768404</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>68.91226833333333</v>
+        <v>106.476041</v>
       </c>
       <c r="N31">
-        <v>206.736805</v>
+        <v>319.428123</v>
       </c>
       <c r="O31">
-        <v>0.1225450231943603</v>
+        <v>0.2479689906073331</v>
       </c>
       <c r="P31">
-        <v>0.1425360923817208</v>
+        <v>0.3000368088518554</v>
       </c>
       <c r="Q31">
-        <v>27.51145438386278</v>
+        <v>1.306709467165667</v>
       </c>
       <c r="R31">
-        <v>247.603089454765</v>
+        <v>11.760385204491</v>
       </c>
       <c r="S31">
-        <v>0.02880550073407963</v>
+        <v>0.001635157649949758</v>
       </c>
       <c r="T31">
-        <v>0.04040109361199574</v>
+        <v>0.002638730745774708</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.03720766666666667</v>
+        <v>0.04200033333333333</v>
       </c>
       <c r="H32">
-        <v>0.111623</v>
+        <v>0.126001</v>
       </c>
       <c r="I32">
-        <v>0.0219076191403306</v>
+        <v>0.02256772861912746</v>
       </c>
       <c r="J32">
-        <v>0.02641701264797046</v>
+        <v>0.03009858881736416</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>235.101616</v>
+        <v>220.2572175</v>
       </c>
       <c r="N32">
-        <v>470.2032320000001</v>
+        <v>440.514435</v>
       </c>
       <c r="O32">
-        <v>0.418075528241112</v>
+        <v>0.5129507012517006</v>
       </c>
       <c r="P32">
-        <v>0.3241848074150885</v>
+        <v>0.4137724133030643</v>
       </c>
       <c r="Q32">
-        <v>8.747582560922668</v>
+        <v>9.2508765540725</v>
       </c>
       <c r="R32">
-        <v>52.48549536553601</v>
+        <v>55.505259324435</v>
       </c>
       <c r="S32">
-        <v>0.009159039444598812</v>
+        <v>0.01157613222083951</v>
       </c>
       <c r="T32">
-        <v>0.00856399415776426</v>
+        <v>0.01245396573197739</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.03720766666666667</v>
+        <v>0.04200033333333333</v>
       </c>
       <c r="H33">
-        <v>0.111623</v>
+        <v>0.126001</v>
       </c>
       <c r="I33">
-        <v>0.0219076191403306</v>
+        <v>0.02256772861912746</v>
       </c>
       <c r="J33">
-        <v>0.02641701264797046</v>
+        <v>0.03009858881736416</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2489,22 +2489,22 @@
         <v>0.184044</v>
       </c>
       <c r="O33">
-        <v>0.0001090936674230931</v>
+        <v>0.0001428715933923452</v>
       </c>
       <c r="P33">
-        <v>0.0001268903840624867</v>
+        <v>0.0001728713612618601</v>
       </c>
       <c r="Q33">
-        <v>0.002282615934666667</v>
+        <v>0.002576636449333334</v>
       </c>
       <c r="R33">
-        <v>0.020543543412</v>
+        <v>0.023189728044</v>
       </c>
       <c r="S33">
-        <v>2.389982516527015E-06</v>
+        <v>3.22428734706077E-06</v>
       </c>
       <c r="T33">
-        <v>3.352064880684541E-06</v>
+        <v>5.203184020918742E-06</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.03720766666666667</v>
+        <v>0.04200033333333333</v>
       </c>
       <c r="H34">
-        <v>0.111623</v>
+        <v>0.126001</v>
       </c>
       <c r="I34">
-        <v>0.0219076191403306</v>
+        <v>0.02256772861912746</v>
       </c>
       <c r="J34">
-        <v>0.02641701264797046</v>
+        <v>0.03009858881736416</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>97.11560033333332</v>
+        <v>71.69991033333334</v>
       </c>
       <c r="N34">
-        <v>291.346801</v>
+        <v>215.099731</v>
       </c>
       <c r="O34">
-        <v>0.1726983276448897</v>
+        <v>0.1669798597413381</v>
       </c>
       <c r="P34">
-        <v>0.2008710279838891</v>
+        <v>0.202041812311349</v>
       </c>
       <c r="Q34">
-        <v>3.613444885335888</v>
+        <v>3.011420133970111</v>
       </c>
       <c r="R34">
-        <v>32.521003968023</v>
+        <v>27.102781205731</v>
       </c>
       <c r="S34">
-        <v>0.00378340918821627</v>
+        <v>0.003768356159502485</v>
       </c>
       <c r="T34">
-        <v>0.005306412486861226</v>
+        <v>0.006081173432674359</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.03720766666666667</v>
+        <v>0.04200033333333333</v>
       </c>
       <c r="H35">
-        <v>0.111623</v>
+        <v>0.126001</v>
       </c>
       <c r="I35">
-        <v>0.0219076191403306</v>
+        <v>0.02256772861912746</v>
       </c>
       <c r="J35">
-        <v>0.02641701264797046</v>
+        <v>0.03009858881736416</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.508493</v>
+        <v>3.2906945</v>
       </c>
       <c r="N35">
-        <v>3.016986</v>
+        <v>6.581389</v>
       </c>
       <c r="O35">
-        <v>0.002682516685989175</v>
+        <v>0.007663603810758729</v>
       </c>
       <c r="P35">
-        <v>0.00208008146014619</v>
+        <v>0.006181856922387211</v>
       </c>
       <c r="Q35">
-        <v>0.056127504713</v>
+        <v>0.1382102658981667</v>
       </c>
       <c r="R35">
-        <v>0.336765028278</v>
+        <v>0.829261595389</v>
       </c>
       <c r="S35">
-        <v>5.876755389423267E-05</v>
+        <v>0.0001729501310457141</v>
       </c>
       <c r="T35">
-        <v>5.494953824149078E-05</v>
+        <v>0.000186065169634709</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.03720766666666667</v>
+        <v>0.04200033333333333</v>
       </c>
       <c r="H36">
-        <v>0.111623</v>
+        <v>0.126001</v>
       </c>
       <c r="I36">
-        <v>0.0219076191403306</v>
+        <v>0.02256772861912746</v>
       </c>
       <c r="J36">
-        <v>0.02641701264797046</v>
+        <v>0.03009858881736416</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>159.6431223333333</v>
+        <v>27.607354</v>
       </c>
       <c r="N36">
-        <v>478.929367</v>
+        <v>82.82206199999999</v>
       </c>
       <c r="O36">
-        <v>0.2838895105662259</v>
+        <v>0.06429397299547716</v>
       </c>
       <c r="P36">
-        <v>0.3302011003750931</v>
+        <v>0.07779423725008243</v>
       </c>
       <c r="Q36">
-        <v>5.939948081404554</v>
+        <v>1.159518070451333</v>
       </c>
       <c r="R36">
-        <v>53.45953273264099</v>
+        <v>10.435662634062</v>
       </c>
       <c r="S36">
-        <v>0.006219343275419736</v>
+        <v>0.001450968934407438</v>
       </c>
       <c r="T36">
-        <v>0.008722926644982597</v>
+        <v>0.002341496759350706</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.03720766666666667</v>
+        <v>0.04200033333333333</v>
       </c>
       <c r="H37">
-        <v>0.111623</v>
+        <v>0.126001</v>
       </c>
       <c r="I37">
-        <v>0.0219076191403306</v>
+        <v>0.02256772861912746</v>
       </c>
       <c r="J37">
-        <v>0.02641701264797046</v>
+        <v>0.03009858881736416</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>68.91226833333333</v>
+        <v>106.476041</v>
       </c>
       <c r="N37">
-        <v>206.736805</v>
+        <v>319.428123</v>
       </c>
       <c r="O37">
-        <v>0.1225450231943603</v>
+        <v>0.2479689906073331</v>
       </c>
       <c r="P37">
-        <v>0.1425360923817208</v>
+        <v>0.3000368088518554</v>
       </c>
       <c r="Q37">
-        <v>2.564064709390555</v>
+        <v>4.472029214013667</v>
       </c>
       <c r="R37">
-        <v>23.076582384515</v>
+        <v>40.248262926123</v>
       </c>
       <c r="S37">
-        <v>0.002684669695685025</v>
+        <v>0.005596096885985261</v>
       </c>
       <c r="T37">
-        <v>0.003765377755240204</v>
+        <v>0.009030684539706084</v>
       </c>
     </row>
   </sheetData>
